--- a/imgsolver/model_trainer/model_metric_logs/digit_class_v42024-10-30.model.keras_metrics.xlsx
+++ b/imgsolver/model_trainer/model_metric_logs/digit_class_v42024-10-30.model.keras_metrics.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.110649898648262</v>
+        <v>0.03392188251018524</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9699000120162964</v>
+        <v>0.9901999831199646</v>
       </c>
     </row>
   </sheetData>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08743718592964825</v>
+        <v>0.9870646766169154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08721804511278196</v>
+        <v>0.9895261845386534</v>
       </c>
       <c r="E2" t="n">
         <v>1000</v>
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1008146639511202</v>
+        <v>0.9929435483870968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.099</v>
+        <v>0.985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09989909182643794</v>
+        <v>0.9889558232931727</v>
       </c>
       <c r="E3" t="n">
         <v>1000</v>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1077235772357724</v>
+        <v>0.9840796019900497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.106</v>
+        <v>0.989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1068548387096774</v>
+        <v>0.9865336658354115</v>
       </c>
       <c r="E4" t="n">
         <v>1000</v>
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.9928716904276986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.975</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1047120418848168</v>
+        <v>0.9838546922300706</v>
       </c>
       <c r="E5" t="n">
         <v>1000</v>
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09107806691449814</v>
+        <v>0.9910269192422732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.098</v>
+        <v>0.994</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09441233140655106</v>
+        <v>0.9925112331502746</v>
       </c>
       <c r="E6" t="n">
         <v>1000</v>
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09146341463414634</v>
+        <v>0.9969666329625885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09</v>
+        <v>0.986</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09072580645161291</v>
+        <v>0.9914529914529915</v>
       </c>
       <c r="E7" t="n">
         <v>1000</v>
@@ -624,13 +624,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1193016488845781</v>
+        <v>0.9920318725099602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.123</v>
+        <v>0.996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121122599704579</v>
+        <v>0.9940119760479041</v>
       </c>
       <c r="E8" t="n">
         <v>1000</v>
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1045364891518738</v>
+        <v>0.9860973187686196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106</v>
+        <v>0.993</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.9895366218236173</v>
       </c>
       <c r="E9" t="n">
         <v>1000</v>
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.107177033492823</v>
+        <v>0.997002997002997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.112</v>
+        <v>0.998</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1095354523227384</v>
+        <v>0.9975012493753124</v>
       </c>
       <c r="E10" t="n">
         <v>1000</v>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1041879468845761</v>
+        <v>0.9822134387351779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.102</v>
+        <v>0.994</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1030823648307226</v>
+        <v>0.9880715705765407</v>
       </c>
       <c r="E11" t="n">
         <v>1000</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1023</v>
+        <v>0.9902</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1023</v>
+        <v>0.9902</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1023</v>
+        <v>0.9902</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1023</v>
+        <v>0.9902</v>
       </c>
     </row>
     <row r="13">
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1023610136969146</v>
+        <v>0.9902298696643378</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1023</v>
+        <v>0.9902</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1022825730144655</v>
+        <v>0.9901956008323948</v>
       </c>
       <c r="E13" t="n">
         <v>10000</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1023610136969146</v>
+        <v>0.9902298696643378</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1023</v>
+        <v>0.9902</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1022825730144655</v>
+        <v>0.990195600832395</v>
       </c>
       <c r="E14" t="n">
         <v>10000</v>
@@ -828,34 +828,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>992</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -865,34 +865,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>99</v>
+        <v>985</v>
       </c>
       <c r="D3" t="n">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -902,34 +902,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>106</v>
+        <v>989</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -939,34 +939,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>975</v>
       </c>
       <c r="F5" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -976,34 +976,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>98</v>
+        <v>994</v>
       </c>
       <c r="G6" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1013,34 +1013,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>90</v>
+        <v>986</v>
       </c>
       <c r="H7" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1050,34 +1050,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>123</v>
+        <v>996</v>
       </c>
       <c r="I8" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1087,34 +1087,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>106</v>
+        <v>993</v>
       </c>
       <c r="J9" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1124,34 +1124,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>112</v>
+        <v>998</v>
       </c>
       <c r="K10" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1161,34 +1161,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>102</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
